--- a/tests/find_adviser/UK postcodes.xlsx
+++ b/tests/find_adviser/UK postcodes.xlsx
@@ -2281,8 +2281,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="Q627" sqref="Q627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/find_adviser/UK postcodes.xlsx
+++ b/tests/find_adviser/UK postcodes.xlsx
@@ -2281,8 +2281,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="Q627" sqref="Q627"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="O284" sqref="O284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
